--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gdf6-Bmpr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gdf6-Bmpr2.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.161358121072658</v>
+        <v>0.232253</v>
       </c>
       <c r="H2">
-        <v>0.161358121072658</v>
+        <v>0.6967589999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N2">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O2">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P2">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q2">
-        <v>7.725481531602377</v>
+        <v>11.122597795771</v>
       </c>
       <c r="R2">
-        <v>7.725481531602377</v>
+        <v>66.73558677462599</v>
       </c>
       <c r="S2">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="T2">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.161358121072658</v>
+        <v>0.232253</v>
       </c>
       <c r="H3">
-        <v>0.161358121072658</v>
+        <v>0.6967589999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P3">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q3">
-        <v>3.693330314629211</v>
+        <v>5.687862499326</v>
       </c>
       <c r="R3">
-        <v>3.693330314629211</v>
+        <v>51.190762493934</v>
       </c>
       <c r="S3">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="T3">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.161358121072658</v>
+        <v>0.232253</v>
       </c>
       <c r="H4">
-        <v>0.161358121072658</v>
+        <v>0.6967589999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N4">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O4">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P4">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q4">
-        <v>3.275444401581281</v>
+        <v>4.790345554479333</v>
       </c>
       <c r="R4">
-        <v>3.275444401581281</v>
+        <v>43.11310999031399</v>
       </c>
       <c r="S4">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="T4">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.161358121072658</v>
+        <v>0.232253</v>
       </c>
       <c r="H5">
-        <v>0.161358121072658</v>
+        <v>0.6967589999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N5">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O5">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P5">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q5">
-        <v>3.522948623486412</v>
+        <v>5.072158480225665</v>
       </c>
       <c r="R5">
-        <v>3.522948623486412</v>
+        <v>45.64942632203099</v>
       </c>
       <c r="S5">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="T5">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.161358121072658</v>
+        <v>0.232253</v>
       </c>
       <c r="H6">
-        <v>0.161358121072658</v>
+        <v>0.6967589999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N6">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O6">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P6">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q6">
-        <v>5.127261458438933</v>
+        <v>7.525782060304666</v>
       </c>
       <c r="R6">
-        <v>5.127261458438933</v>
+        <v>67.73203854274199</v>
       </c>
       <c r="S6">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="T6">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.161358121072658</v>
+        <v>0.232253</v>
       </c>
       <c r="H7">
-        <v>0.161358121072658</v>
+        <v>0.6967589999999999</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N7">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O7">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P7">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q7">
-        <v>5.007003562536569</v>
+        <v>7.442248359262498</v>
       </c>
       <c r="R7">
-        <v>5.007003562536569</v>
+        <v>44.65349015557499</v>
       </c>
       <c r="S7">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="T7">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
     </row>
   </sheetData>
